--- a/Zeus/data/TSP/Results/bier127.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/bier127.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>124105.359375</v>
+        <v>122640.0234375</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>124105.359375</v>
+        <v>122640.0234375</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>7888.0</v>
+        <v>7540.0</v>
       </c>
       <c r="D16" t="n">
-        <v>17168.0</v>
+        <v>16820.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>47.0</v>
+        <v>53.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>8352.0</v>
+        <v>7888.0</v>
       </c>
       <c r="D17" t="n">
-        <v>17052.0</v>
+        <v>16936.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,7 +346,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -355,7 +355,7 @@
         <v>7888.0</v>
       </c>
       <c r="D18" t="n">
-        <v>16936.0</v>
+        <v>17168.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>7540.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16820.0</v>
+        <v>17052.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>8236.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D20" t="n">
-        <v>15428.0</v>
+        <v>16008.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>9164.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D22" t="n">
-        <v>14964.0</v>
+        <v>15428.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>121.0</v>
+        <v>45.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>9164.0</v>
+        <v>7540.0</v>
       </c>
       <c r="D23" t="n">
-        <v>15544.0</v>
+        <v>15080.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56.0</v>
+        <v>103.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>9164.0</v>
+        <v>7308.0</v>
       </c>
       <c r="D24" t="n">
-        <v>16008.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.0</v>
+        <v>44.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>9512.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D25" t="n">
-        <v>15776.0</v>
+        <v>14732.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>9744.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D26" t="n">
-        <v>16240.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>124.0</v>
+        <v>35.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>9512.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D27" t="n">
-        <v>16472.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>55.0</v>
+        <v>37.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>9512.0</v>
+        <v>9048.0</v>
       </c>
       <c r="D28" t="n">
-        <v>17400.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66.0</v>
+        <v>36.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>10324.0</v>
+        <v>8932.0</v>
       </c>
       <c r="D29" t="n">
-        <v>17516.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>113.0</v>
+        <v>43.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>11832.0</v>
+        <v>8584.0</v>
       </c>
       <c r="D30" t="n">
-        <v>17516.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>65.0</v>
+        <v>34.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>11600.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D31" t="n">
-        <v>19720.0</v>
+        <v>12876.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>99.0</v>
+        <v>42.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>14384.0</v>
+        <v>8004.0</v>
       </c>
       <c r="D32" t="n">
-        <v>20184.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>92.0</v>
+        <v>39.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>14152.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D33" t="n">
-        <v>18908.0</v>
+        <v>12644.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>89.0</v>
+        <v>38.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>13804.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D34" t="n">
-        <v>18792.0</v>
+        <v>12296.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>125.0</v>
+        <v>28.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>13688.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D35" t="n">
-        <v>17516.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>64.0</v>
+        <v>122.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>11716.0</v>
+        <v>8004.0</v>
       </c>
       <c r="D36" t="n">
-        <v>16124.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58.0</v>
+        <v>32.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>11716.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D37" t="n">
-        <v>16008.0</v>
+        <v>10324.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>100.0</v>
+        <v>29.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>11252.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D38" t="n">
-        <v>15776.0</v>
+        <v>10672.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>115.0</v>
+        <v>33.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>10208.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D39" t="n">
-        <v>15196.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>9744.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D40" t="n">
-        <v>15196.0</v>
+        <v>11136.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>10092.0</v>
+        <v>8932.0</v>
       </c>
       <c r="D41" t="n">
-        <v>14964.0</v>
+        <v>12064.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>10208.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D42" t="n">
-        <v>14384.0</v>
+        <v>12412.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>120.0</v>
+        <v>31.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>10440.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D43" t="n">
-        <v>14732.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>10672.0</v>
+        <v>9860.0</v>
       </c>
       <c r="D44" t="n">
-        <v>15080.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>11252.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D45" t="n">
-        <v>14848.0</v>
+        <v>12876.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11.0</v>
+        <v>41.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>11136.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D46" t="n">
-        <v>14152.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>11252.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D47" t="n">
-        <v>14036.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>11020.0</v>
+        <v>9628.0</v>
       </c>
       <c r="D48" t="n">
-        <v>13688.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>11136.0</v>
+        <v>9860.0</v>
       </c>
       <c r="D49" t="n">
-        <v>13572.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>11020.0</v>
+        <v>10556.0</v>
       </c>
       <c r="D50" t="n">
-        <v>13456.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>10556.0</v>
+        <v>10208.0</v>
       </c>
       <c r="D57" t="n">
-        <v>13688.0</v>
+        <v>14384.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>12.0</v>
+        <v>120.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>9860.0</v>
+        <v>10440.0</v>
       </c>
       <c r="D58" t="n">
-        <v>13108.0</v>
+        <v>14732.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>31.0</v>
+        <v>13.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>9744.0</v>
+        <v>10092.0</v>
       </c>
       <c r="D59" t="n">
-        <v>12528.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27.0</v>
+        <v>115.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>9512.0</v>
+        <v>10208.0</v>
       </c>
       <c r="D60" t="n">
-        <v>12412.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>9164.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D61" t="n">
-        <v>12876.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>41.0</v>
+        <v>2.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>9164.0</v>
+        <v>9396.0</v>
       </c>
       <c r="D62" t="n">
-        <v>13340.0</v>
+        <v>14616.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>14.0</v>
+        <v>51.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>9512.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D63" t="n">
-        <v>13340.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>16.0</v>
+        <v>121.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>9628.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D64" t="n">
-        <v>14036.0</v>
+        <v>15544.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>9860.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D65" t="n">
-        <v>14152.0</v>
+        <v>15776.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.0</v>
+        <v>52.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>9396.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D66" t="n">
-        <v>14616.0</v>
+        <v>16240.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>9048.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D67" t="n">
-        <v>13804.0</v>
+        <v>16472.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>8932.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D68" t="n">
-        <v>13688.0</v>
+        <v>17400.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35.0</v>
+        <v>66.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>8700.0</v>
+        <v>10324.0</v>
       </c>
       <c r="D69" t="n">
-        <v>14036.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>44.0</v>
+        <v>100.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>7772.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D70" t="n">
-        <v>14732.0</v>
+        <v>15776.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>45.0</v>
+        <v>10.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>7540.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D71" t="n">
         <v>15080.0</v>
@@ -1264,13 +1264,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>103.0</v>
+        <v>3.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>7308.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D72" t="n">
         <v>14848.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>40.0</v>
+        <v>90.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>8236.0</v>
+        <v>12064.0</v>
       </c>
       <c r="D73" t="n">
-        <v>13572.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43.0</v>
+        <v>61.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>8584.0</v>
+        <v>12296.0</v>
       </c>
       <c r="D74" t="n">
-        <v>13108.0</v>
+        <v>15312.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>34.0</v>
+        <v>91.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>8468.0</v>
+        <v>12180.0</v>
       </c>
       <c r="D75" t="n">
-        <v>12876.0</v>
+        <v>15544.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>42.0</v>
+        <v>58.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>8004.0</v>
+        <v>11716.0</v>
       </c>
       <c r="D76" t="n">
-        <v>12760.0</v>
+        <v>16008.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>8352.0</v>
+        <v>11716.0</v>
       </c>
       <c r="D77" t="n">
-        <v>12644.0</v>
+        <v>16124.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>38.0</v>
+        <v>113.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>8468.0</v>
+        <v>11832.0</v>
       </c>
       <c r="D78" t="n">
-        <v>12296.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>26.0</v>
+        <v>65.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>8932.0</v>
+        <v>11600.0</v>
       </c>
       <c r="D79" t="n">
-        <v>12064.0</v>
+        <v>19720.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>25.0</v>
+        <v>99.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>8468.0</v>
+        <v>14384.0</v>
       </c>
       <c r="D80" t="n">
-        <v>11136.0</v>
+        <v>20184.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>28.0</v>
+        <v>92.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>7772.0</v>
+        <v>14152.0</v>
       </c>
       <c r="D81" t="n">
-        <v>11020.0</v>
+        <v>18908.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>122.0</v>
+        <v>89.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>8004.0</v>
+        <v>13804.0</v>
       </c>
       <c r="D82" t="n">
-        <v>11020.0</v>
+        <v>18792.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>33.0</v>
+        <v>125.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>8236.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D83" t="n">
-        <v>11020.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>29.0</v>
+        <v>104.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>8352.0</v>
+        <v>16472.0</v>
       </c>
       <c r="D84" t="n">
-        <v>10672.0</v>
+        <v>16472.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>8352.0</v>
+        <v>12992.0</v>
       </c>
       <c r="D85" t="n">
-        <v>10324.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>80.0</v>
+        <v>62.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>10324.0</v>
+        <v>12528.0</v>
       </c>
       <c r="D86" t="n">
-        <v>11716.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>79.0</v>
+        <v>60.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>10556.0</v>
+        <v>12412.0</v>
       </c>
       <c r="D87" t="n">
-        <v>11948.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>78.0</v>
+        <v>116.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>11136.0</v>
+        <v>12180.0</v>
       </c>
       <c r="D88" t="n">
-        <v>11020.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>117.0</v>
+        <v>11.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>11020.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D89" t="n">
-        <v>10208.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>76.0</v>
+        <v>9.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>11832.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D90" t="n">
-        <v>11252.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>75.0</v>
+        <v>24.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>12644.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D91" t="n">
-        <v>10556.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>84.0</v>
+        <v>23.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>11484.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D92" t="n">
-        <v>9744.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>81.0</v>
+        <v>4.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>11484.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D93" t="n">
-        <v>9512.0</v>
+        <v>13456.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>126.0</v>
+        <v>22.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>11484.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D94" t="n">
-        <v>8468.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>82.0</v>
+        <v>17.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>11484.0</v>
+        <v>10904.0</v>
       </c>
       <c r="D95" t="n">
-        <v>7540.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>83.0</v>
+        <v>21.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -1681,7 +1681,7 @@
         <v>11020.0</v>
       </c>
       <c r="D96" t="n">
-        <v>7424.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>101.0</v>
+        <v>19.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>9744.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D97" t="n">
-        <v>3132.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>102.0</v>
+        <v>72.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>10904.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D98" t="n">
-        <v>3480.0</v>
+        <v>13224.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>63.0</v>
+        <v>8.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>15312.0</v>
+        <v>11600.0</v>
       </c>
       <c r="D99" t="n">
-        <v>6612.0</v>
+        <v>13456.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>119.0</v>
+        <v>67.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>16240.0</v>
+        <v>12412.0</v>
       </c>
       <c r="D100" t="n">
-        <v>8352.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>96.0</v>
+        <v>73.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>15660.0</v>
+        <v>12296.0</v>
       </c>
       <c r="D101" t="n">
-        <v>10788.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>109.0</v>
+        <v>74.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>15660.0</v>
+        <v>12064.0</v>
       </c>
       <c r="D102" t="n">
-        <v>11368.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>88.0</v>
+        <v>18.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>17052.0</v>
+        <v>11368.0</v>
       </c>
       <c r="D103" t="n">
-        <v>11600.0</v>
+        <v>12644.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>16936.0</v>
+        <v>11368.0</v>
       </c>
       <c r="D104" t="n">
-        <v>11832.0</v>
+        <v>12296.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>86.0</v>
+        <v>79.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>17052.0</v>
+        <v>10556.0</v>
       </c>
       <c r="D105" t="n">
-        <v>12064.0</v>
+        <v>11948.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>16936.0</v>
+        <v>10324.0</v>
       </c>
       <c r="D106" t="n">
-        <v>12180.0</v>
+        <v>11716.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>110.0</v>
+        <v>78.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>15544.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D107" t="n">
-        <v>12760.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>71.0</v>
+        <v>117.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>13688.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D108" t="n">
-        <v>12528.0</v>
+        <v>10208.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>70.0</v>
+        <v>84.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>13688.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D109" t="n">
-        <v>11716.0</v>
+        <v>9744.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>69.0</v>
+        <v>81.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>13688.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D110" t="n">
-        <v>10904.0</v>
+        <v>9512.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>68.0</v>
+        <v>126.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>12876.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D111" t="n">
-        <v>12180.0</v>
+        <v>8468.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>73.0</v>
+        <v>82.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>12296.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D112" t="n">
-        <v>12760.0</v>
+        <v>7540.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>74.0</v>
+        <v>83.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>12064.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D113" t="n">
-        <v>12528.0</v>
+        <v>7424.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>11368.0</v>
+        <v>11832.0</v>
       </c>
       <c r="D114" t="n">
-        <v>12296.0</v>
+        <v>11252.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>18.0</v>
+        <v>75.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>11368.0</v>
+        <v>12644.0</v>
       </c>
       <c r="D115" t="n">
-        <v>12644.0</v>
+        <v>10556.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>21.0</v>
+        <v>69.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>11020.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D116" t="n">
-        <v>13108.0</v>
+        <v>10904.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>17.0</v>
+        <v>70.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>10904.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D117" t="n">
-        <v>13108.0</v>
+        <v>11716.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>22.0</v>
+        <v>68.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>11020.0</v>
+        <v>12876.0</v>
       </c>
       <c r="D118" t="n">
-        <v>13340.0</v>
+        <v>12180.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>19.0</v>
+        <v>71.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>11252.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D119" t="n">
-        <v>13340.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>72.0</v>
+        <v>110.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>11484.0</v>
+        <v>15544.0</v>
       </c>
       <c r="D120" t="n">
-        <v>13224.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.0</v>
+        <v>109.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>11600.0</v>
+        <v>15660.0</v>
       </c>
       <c r="D121" t="n">
-        <v>13456.0</v>
+        <v>11368.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>12412.0</v>
+        <v>16936.0</v>
       </c>
       <c r="D122" t="n">
-        <v>13340.0</v>
+        <v>12180.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>116.0</v>
+        <v>86.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>12180.0</v>
+        <v>17052.0</v>
       </c>
       <c r="D123" t="n">
-        <v>14848.0</v>
+        <v>12064.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>90.0</v>
+        <v>87.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>12064.0</v>
+        <v>16936.0</v>
       </c>
       <c r="D124" t="n">
-        <v>14964.0</v>
+        <v>11832.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>60.0</v>
+        <v>88.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>12412.0</v>
+        <v>17052.0</v>
       </c>
       <c r="D125" t="n">
-        <v>14964.0</v>
+        <v>11600.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>61.0</v>
+        <v>96.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>12296.0</v>
+        <v>15660.0</v>
       </c>
       <c r="D126" t="n">
-        <v>15312.0</v>
+        <v>10788.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>91.0</v>
+        <v>119.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>12180.0</v>
+        <v>16240.0</v>
       </c>
       <c r="D127" t="n">
-        <v>15544.0</v>
+        <v>8352.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>12528.0</v>
+        <v>15312.0</v>
       </c>
       <c r="D128" t="n">
-        <v>15196.0</v>
+        <v>6612.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>59.0</v>
+        <v>102.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>12992.0</v>
+        <v>10904.0</v>
       </c>
       <c r="D129" t="n">
-        <v>14964.0</v>
+        <v>3480.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>104.0</v>
+        <v>101.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>16472.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D130" t="n">
-        <v>16472.0</v>
+        <v>3132.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/bier127.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/bier127.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>122640.0234375</v>
+        <v>124590.0546875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>122640.0234375</v>
+        <v>124590.0546875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>9164.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D20" t="n">
-        <v>16008.0</v>
+        <v>17400.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>57.0</v>
+        <v>66.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>8700.0</v>
+        <v>10324.0</v>
       </c>
       <c r="D21" t="n">
-        <v>15312.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>54.0</v>
+        <v>124.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>8236.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D22" t="n">
-        <v>15428.0</v>
+        <v>16472.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>45.0</v>
+        <v>52.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>7540.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D23" t="n">
-        <v>15080.0</v>
+        <v>16240.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103.0</v>
+        <v>56.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>7308.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D24" t="n">
-        <v>14848.0</v>
+        <v>16008.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>44.0</v>
+        <v>121.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>7772.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D25" t="n">
-        <v>14732.0</v>
+        <v>15544.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40.0</v>
+        <v>5.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>8236.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D26" t="n">
-        <v>13572.0</v>
+        <v>15776.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>35.0</v>
+        <v>115.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>8700.0</v>
+        <v>10208.0</v>
       </c>
       <c r="D27" t="n">
-        <v>14036.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>37.0</v>
+        <v>13.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>9048.0</v>
+        <v>10092.0</v>
       </c>
       <c r="D28" t="n">
-        <v>13804.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>8932.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D29" t="n">
-        <v>13688.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43.0</v>
+        <v>57.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>8584.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D30" t="n">
-        <v>13108.0</v>
+        <v>15312.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>34.0</v>
+        <v>54.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>8468.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D31" t="n">
-        <v>12876.0</v>
+        <v>15428.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>8004.0</v>
+        <v>7540.0</v>
       </c>
       <c r="D32" t="n">
-        <v>12760.0</v>
+        <v>15080.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>39.0</v>
+        <v>103.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>8352.0</v>
+        <v>7308.0</v>
       </c>
       <c r="D33" t="n">
-        <v>12644.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>8468.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D34" t="n">
-        <v>12296.0</v>
+        <v>14732.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28.0</v>
+        <v>51.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>7772.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D35" t="n">
-        <v>11020.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>122.0</v>
+        <v>2.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>8004.0</v>
+        <v>9396.0</v>
       </c>
       <c r="D36" t="n">
-        <v>11020.0</v>
+        <v>14616.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>8352.0</v>
+        <v>9628.0</v>
       </c>
       <c r="D37" t="n">
-        <v>10324.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>8352.0</v>
+        <v>9860.0</v>
       </c>
       <c r="D38" t="n">
-        <v>10672.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>33.0</v>
+        <v>7.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>8236.0</v>
+        <v>10208.0</v>
       </c>
       <c r="D39" t="n">
-        <v>11020.0</v>
+        <v>14384.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25.0</v>
+        <v>120.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>8468.0</v>
+        <v>10440.0</v>
       </c>
       <c r="D40" t="n">
-        <v>11136.0</v>
+        <v>14732.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>8932.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D41" t="n">
-        <v>12064.0</v>
+        <v>15080.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>27.0</v>
+        <v>105.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>9512.0</v>
+        <v>10440.0</v>
       </c>
       <c r="D42" t="n">
-        <v>12412.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>31.0</v>
+        <v>114.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>9744.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D43" t="n">
-        <v>12528.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>9860.0</v>
+        <v>10556.0</v>
       </c>
       <c r="D44" t="n">
-        <v>13108.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>30.0</v>
+        <v>106.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>9164.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D45" t="n">
-        <v>12876.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>41.0</v>
+        <v>6.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>9164.0</v>
+        <v>10788.0</v>
       </c>
       <c r="D46" t="n">
-        <v>13340.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.0</v>
+        <v>108.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>9512.0</v>
+        <v>10788.0</v>
       </c>
       <c r="D47" t="n">
-        <v>13340.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>9628.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D48" t="n">
-        <v>14036.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>9860.0</v>
+        <v>10904.0</v>
       </c>
       <c r="D49" t="n">
-        <v>14152.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>10556.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D50" t="n">
-        <v>13688.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20.0</v>
+        <v>77.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>10672.0</v>
+        <v>11368.0</v>
       </c>
       <c r="D51" t="n">
-        <v>13340.0</v>
+        <v>12296.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>108.0</v>
+        <v>18.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>10788.0</v>
+        <v>11368.0</v>
       </c>
       <c r="D52" t="n">
-        <v>13572.0</v>
+        <v>12644.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.0</v>
+        <v>72.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>10788.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D53" t="n">
-        <v>13804.0</v>
+        <v>13224.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>106.0</v>
+        <v>8.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>10672.0</v>
+        <v>11600.0</v>
       </c>
       <c r="D54" t="n">
-        <v>13804.0</v>
+        <v>13456.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>114.0</v>
+        <v>19.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>10672.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D55" t="n">
-        <v>14152.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>105.0</v>
+        <v>22.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>10440.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D56" t="n">
-        <v>14036.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>10208.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D57" t="n">
-        <v>14384.0</v>
+        <v>13456.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>120.0</v>
+        <v>23.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>10440.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D58" t="n">
-        <v>14732.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>10092.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D59" t="n">
-        <v>14964.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>115.0</v>
+        <v>9.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>10208.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D60" t="n">
-        <v>15196.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>50.0</v>
+        <v>11.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>9744.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D61" t="n">
-        <v>15196.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>9396.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D62" t="n">
-        <v>14616.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>51.0</v>
+        <v>90.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>9164.0</v>
+        <v>12064.0</v>
       </c>
       <c r="D63" t="n">
         <v>14964.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>121.0</v>
+        <v>116.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>9164.0</v>
+        <v>12180.0</v>
       </c>
       <c r="D64" t="n">
-        <v>15544.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.0</v>
+        <v>62.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>9512.0</v>
+        <v>12528.0</v>
       </c>
       <c r="D65" t="n">
-        <v>15776.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>52.0</v>
+        <v>59.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>9744.0</v>
+        <v>12992.0</v>
       </c>
       <c r="D66" t="n">
-        <v>16240.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,13 +1179,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>124.0</v>
+        <v>104.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>9512.0</v>
+        <v>16472.0</v>
       </c>
       <c r="D67" t="n">
         <v>16472.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>55.0</v>
+        <v>99.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>9512.0</v>
+        <v>14384.0</v>
       </c>
       <c r="D68" t="n">
-        <v>17400.0</v>
+        <v>20184.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>66.0</v>
+        <v>92.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>10324.0</v>
+        <v>14152.0</v>
       </c>
       <c r="D69" t="n">
-        <v>17516.0</v>
+        <v>18908.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>100.0</v>
+        <v>89.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>11252.0</v>
+        <v>13804.0</v>
       </c>
       <c r="D70" t="n">
-        <v>15776.0</v>
+        <v>18792.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.0</v>
+        <v>125.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>10672.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D71" t="n">
-        <v>15080.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.0</v>
+        <v>65.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>11252.0</v>
+        <v>11600.0</v>
       </c>
       <c r="D72" t="n">
-        <v>14848.0</v>
+        <v>19720.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>90.0</v>
+        <v>113.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>12064.0</v>
+        <v>11832.0</v>
       </c>
       <c r="D73" t="n">
-        <v>14964.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>12296.0</v>
+        <v>11716.0</v>
       </c>
       <c r="D74" t="n">
-        <v>15312.0</v>
+        <v>16124.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>91.0</v>
+        <v>58.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>12180.0</v>
+        <v>11716.0</v>
       </c>
       <c r="D75" t="n">
-        <v>15544.0</v>
+        <v>16008.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>58.0</v>
+        <v>100.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>11716.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D76" t="n">
-        <v>16008.0</v>
+        <v>15776.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>64.0</v>
+        <v>91.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>11716.0</v>
+        <v>12180.0</v>
       </c>
       <c r="D77" t="n">
-        <v>16124.0</v>
+        <v>15544.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>113.0</v>
+        <v>61.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>11832.0</v>
+        <v>12296.0</v>
       </c>
       <c r="D78" t="n">
-        <v>17516.0</v>
+        <v>15312.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>11600.0</v>
+        <v>12412.0</v>
       </c>
       <c r="D79" t="n">
-        <v>19720.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>99.0</v>
+        <v>67.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>14384.0</v>
+        <v>12412.0</v>
       </c>
       <c r="D80" t="n">
-        <v>20184.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.0</v>
+        <v>73.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>14152.0</v>
+        <v>12296.0</v>
       </c>
       <c r="D81" t="n">
-        <v>18908.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>89.0</v>
+        <v>74.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>13804.0</v>
+        <v>12064.0</v>
       </c>
       <c r="D82" t="n">
-        <v>18792.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>125.0</v>
+        <v>68.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>13688.0</v>
+        <v>12876.0</v>
       </c>
       <c r="D83" t="n">
-        <v>17516.0</v>
+        <v>12180.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>104.0</v>
+        <v>76.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>16472.0</v>
+        <v>11832.0</v>
       </c>
       <c r="D84" t="n">
-        <v>16472.0</v>
+        <v>11252.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>59.0</v>
+        <v>75.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>12992.0</v>
+        <v>12644.0</v>
       </c>
       <c r="D85" t="n">
-        <v>14964.0</v>
+        <v>10556.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>62.0</v>
+        <v>69.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>12528.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D86" t="n">
-        <v>15196.0</v>
+        <v>10904.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>12412.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D87" t="n">
-        <v>14964.0</v>
+        <v>11716.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>116.0</v>
+        <v>71.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>12180.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D88" t="n">
-        <v>14848.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>11.0</v>
+        <v>96.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>11136.0</v>
+        <v>15660.0</v>
       </c>
       <c r="D89" t="n">
-        <v>14152.0</v>
+        <v>10788.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.0</v>
+        <v>109.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>11252.0</v>
+        <v>15660.0</v>
       </c>
       <c r="D90" t="n">
-        <v>14036.0</v>
+        <v>11368.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>24.0</v>
+        <v>110.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>11020.0</v>
+        <v>15544.0</v>
       </c>
       <c r="D91" t="n">
-        <v>13688.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>23.0</v>
+        <v>85.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>11136.0</v>
+        <v>16936.0</v>
       </c>
       <c r="D92" t="n">
-        <v>13572.0</v>
+        <v>12180.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.0</v>
+        <v>86.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>11020.0</v>
+        <v>17052.0</v>
       </c>
       <c r="D93" t="n">
-        <v>13456.0</v>
+        <v>12064.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>22.0</v>
+        <v>87.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>11020.0</v>
+        <v>16936.0</v>
       </c>
       <c r="D94" t="n">
-        <v>13340.0</v>
+        <v>11832.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>17.0</v>
+        <v>88.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>10904.0</v>
+        <v>17052.0</v>
       </c>
       <c r="D95" t="n">
-        <v>13108.0</v>
+        <v>11600.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>21.0</v>
+        <v>119.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>11020.0</v>
+        <v>16240.0</v>
       </c>
       <c r="D96" t="n">
-        <v>13108.0</v>
+        <v>8352.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>19.0</v>
+        <v>63.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>11252.0</v>
+        <v>15312.0</v>
       </c>
       <c r="D97" t="n">
-        <v>13340.0</v>
+        <v>6612.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>72.0</v>
+        <v>102.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>11484.0</v>
+        <v>10904.0</v>
       </c>
       <c r="D98" t="n">
-        <v>13224.0</v>
+        <v>3480.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.0</v>
+        <v>101.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>11600.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D99" t="n">
-        <v>13456.0</v>
+        <v>3132.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>12412.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D100" t="n">
-        <v>13340.0</v>
+        <v>7424.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>73.0</v>
+        <v>82.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>12296.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D101" t="n">
-        <v>12760.0</v>
+        <v>7540.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>74.0</v>
+        <v>126.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>12064.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D102" t="n">
-        <v>12528.0</v>
+        <v>8468.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>18.0</v>
+        <v>81.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>11368.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D103" t="n">
-        <v>12644.0</v>
+        <v>9512.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>77.0</v>
+        <v>84.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>11368.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D104" t="n">
-        <v>12296.0</v>
+        <v>9744.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>79.0</v>
+        <v>117.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>10556.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D105" t="n">
-        <v>11948.0</v>
+        <v>10208.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>80.0</v>
+        <v>78.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>10324.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D106" t="n">
-        <v>11716.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>11136.0</v>
+        <v>10556.0</v>
       </c>
       <c r="D107" t="n">
-        <v>11020.0</v>
+        <v>11948.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>117.0</v>
+        <v>80.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>11020.0</v>
+        <v>10324.0</v>
       </c>
       <c r="D108" t="n">
-        <v>10208.0</v>
+        <v>11716.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>84.0</v>
+        <v>31.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>11484.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D109" t="n">
-        <v>9744.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>81.0</v>
+        <v>27.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>11484.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D110" t="n">
-        <v>9512.0</v>
+        <v>12412.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>126.0</v>
+        <v>30.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>11484.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D111" t="n">
-        <v>8468.0</v>
+        <v>12876.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>82.0</v>
+        <v>12.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>11484.0</v>
+        <v>9860.0</v>
       </c>
       <c r="D112" t="n">
-        <v>7540.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>83.0</v>
+        <v>14.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>11020.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D113" t="n">
-        <v>7424.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>76.0</v>
+        <v>41.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>11832.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D114" t="n">
-        <v>11252.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>75.0</v>
+        <v>36.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>12644.0</v>
+        <v>8932.0</v>
       </c>
       <c r="D115" t="n">
-        <v>10556.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>69.0</v>
+        <v>37.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>13688.0</v>
+        <v>9048.0</v>
       </c>
       <c r="D116" t="n">
-        <v>10904.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>70.0</v>
+        <v>35.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>13688.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D117" t="n">
-        <v>11716.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>68.0</v>
+        <v>40.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>12876.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D118" t="n">
-        <v>12180.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>71.0</v>
+        <v>43.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>13688.0</v>
+        <v>8584.0</v>
       </c>
       <c r="D119" t="n">
-        <v>12528.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>110.0</v>
+        <v>34.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>15544.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D120" t="n">
-        <v>12760.0</v>
+        <v>12876.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>109.0</v>
+        <v>39.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>15660.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D121" t="n">
-        <v>11368.0</v>
+        <v>12644.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>85.0</v>
+        <v>42.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>16936.0</v>
+        <v>8004.0</v>
       </c>
       <c r="D122" t="n">
-        <v>12180.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>86.0</v>
+        <v>38.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>17052.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D123" t="n">
-        <v>12064.0</v>
+        <v>12296.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>87.0</v>
+        <v>26.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>16936.0</v>
+        <v>8932.0</v>
       </c>
       <c r="D124" t="n">
-        <v>11832.0</v>
+        <v>12064.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>88.0</v>
+        <v>25.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>17052.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D125" t="n">
-        <v>11600.0</v>
+        <v>11136.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>96.0</v>
+        <v>33.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>15660.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D126" t="n">
-        <v>10788.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>119.0</v>
+        <v>122.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>16240.0</v>
+        <v>8004.0</v>
       </c>
       <c r="D127" t="n">
-        <v>8352.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>63.0</v>
+        <v>28.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>15312.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D128" t="n">
-        <v>6612.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>102.0</v>
+        <v>29.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>10904.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D129" t="n">
-        <v>3480.0</v>
+        <v>10672.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>101.0</v>
+        <v>32.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>9744.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D130" t="n">
-        <v>3132.0</v>
+        <v>10324.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/bier127.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/bier127.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>124590.0546875</v>
+        <v>145186.859375</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>124590.0546875</v>
+        <v>145186.859375</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,16 +108,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>812.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D4" t="n">
-        <v>6264.0</v>
+        <v>3132.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -125,16 +125,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97.0</v>
+        <v>102.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>5336.0</v>
+        <v>10904.0</v>
       </c>
       <c r="D5" t="n">
-        <v>10324.0</v>
+        <v>3480.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>123.0</v>
+        <v>63.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5684.0</v>
+        <v>15312.0</v>
       </c>
       <c r="D6" t="n">
-        <v>11948.0</v>
+        <v>6612.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95.0</v>
+        <v>119.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5684.0</v>
+        <v>16240.0</v>
       </c>
       <c r="D7" t="n">
-        <v>13224.0</v>
+        <v>8352.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5104.0</v>
+        <v>15660.0</v>
       </c>
       <c r="D8" t="n">
-        <v>14616.0</v>
+        <v>10788.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>127.0</v>
+        <v>109.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3248.0</v>
+        <v>15660.0</v>
       </c>
       <c r="D9" t="n">
-        <v>14152.0</v>
+        <v>11368.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107.0</v>
+        <v>88.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1160.0</v>
+        <v>17052.0</v>
       </c>
       <c r="D10" t="n">
-        <v>18560.0</v>
+        <v>11600.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111.0</v>
+        <v>87.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>5336.0</v>
+        <v>16936.0</v>
       </c>
       <c r="D11" t="n">
-        <v>18908.0</v>
+        <v>11832.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112.0</v>
+        <v>86.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>6264.0</v>
+        <v>17052.0</v>
       </c>
       <c r="D12" t="n">
-        <v>19140.0</v>
+        <v>12064.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94.0</v>
+        <v>85.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>6496.0</v>
+        <v>16936.0</v>
       </c>
       <c r="D13" t="n">
-        <v>17168.0</v>
+        <v>12180.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>46.0</v>
+        <v>110.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7424.0</v>
+        <v>15544.0</v>
       </c>
       <c r="D14" t="n">
-        <v>17516.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>118.0</v>
+        <v>82.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>7656.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D15" t="n">
-        <v>17052.0</v>
+        <v>7540.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>48.0</v>
+        <v>83.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>7540.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D16" t="n">
-        <v>16820.0</v>
+        <v>7424.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>53.0</v>
+        <v>126.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>7888.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D17" t="n">
-        <v>16936.0</v>
+        <v>8468.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>49.0</v>
+        <v>81.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>7888.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D18" t="n">
-        <v>17168.0</v>
+        <v>9512.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>47.0</v>
+        <v>84.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>8352.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D19" t="n">
-        <v>17052.0</v>
+        <v>9744.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>55.0</v>
+        <v>117.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>9512.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D20" t="n">
-        <v>17400.0</v>
+        <v>10208.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66.0</v>
+        <v>75.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>10324.0</v>
+        <v>12644.0</v>
       </c>
       <c r="D21" t="n">
-        <v>17516.0</v>
+        <v>10556.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>124.0</v>
+        <v>69.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>9512.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D22" t="n">
-        <v>16472.0</v>
+        <v>10904.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>52.0</v>
+        <v>70.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>9744.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D23" t="n">
-        <v>16240.0</v>
+        <v>11716.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56.0</v>
+        <v>71.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>9164.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D24" t="n">
-        <v>16008.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>121.0</v>
+        <v>68.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>9164.0</v>
+        <v>12876.0</v>
       </c>
       <c r="D25" t="n">
-        <v>15544.0</v>
+        <v>12180.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.0</v>
+        <v>76.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>9512.0</v>
+        <v>11832.0</v>
       </c>
       <c r="D26" t="n">
-        <v>15776.0</v>
+        <v>11252.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>115.0</v>
+        <v>78.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>10208.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D27" t="n">
-        <v>15196.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13.0</v>
+        <v>77.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>10092.0</v>
+        <v>11368.0</v>
       </c>
       <c r="D28" t="n">
-        <v>14964.0</v>
+        <v>12296.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>50.0</v>
+        <v>74.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>9744.0</v>
+        <v>12064.0</v>
       </c>
       <c r="D29" t="n">
-        <v>15196.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>57.0</v>
+        <v>73.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>8700.0</v>
+        <v>12296.0</v>
       </c>
       <c r="D30" t="n">
-        <v>15312.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54.0</v>
+        <v>67.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>8236.0</v>
+        <v>12412.0</v>
       </c>
       <c r="D31" t="n">
-        <v>15428.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>45.0</v>
+        <v>18.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>7540.0</v>
+        <v>11368.0</v>
       </c>
       <c r="D32" t="n">
-        <v>15080.0</v>
+        <v>12644.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>103.0</v>
+        <v>72.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>7308.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D33" t="n">
-        <v>14848.0</v>
+        <v>13224.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>44.0</v>
+        <v>8.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>7772.0</v>
+        <v>11600.0</v>
       </c>
       <c r="D34" t="n">
-        <v>14732.0</v>
+        <v>13456.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>51.0</v>
+        <v>21.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>9164.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D35" t="n">
-        <v>14964.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>9396.0</v>
+        <v>10904.0</v>
       </c>
       <c r="D36" t="n">
-        <v>14616.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>9628.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D37" t="n">
-        <v>14036.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>9860.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D38" t="n">
-        <v>14152.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>10208.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D39" t="n">
-        <v>14384.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>120.0</v>
+        <v>9.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>10440.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D40" t="n">
-        <v>14732.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>10672.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D41" t="n">
-        <v>15080.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>105.0</v>
+        <v>24.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>10440.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D42" t="n">
-        <v>14036.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>114.0</v>
+        <v>4.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>10672.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D43" t="n">
-        <v>14152.0</v>
+        <v>13456.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>10556.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D44" t="n">
-        <v>13688.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>106.0</v>
+        <v>108.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>10672.0</v>
+        <v>10788.0</v>
       </c>
       <c r="D45" t="n">
-        <v>13804.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>108.0</v>
+        <v>106.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>10788.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D47" t="n">
-        <v>13572.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20.0</v>
+        <v>114.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -865,7 +865,7 @@
         <v>10672.0</v>
       </c>
       <c r="D48" t="n">
-        <v>13340.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17.0</v>
+        <v>105.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>10904.0</v>
+        <v>10440.0</v>
       </c>
       <c r="D49" t="n">
-        <v>13108.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>11020.0</v>
+        <v>10556.0</v>
       </c>
       <c r="D50" t="n">
-        <v>13108.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>11368.0</v>
+        <v>10324.0</v>
       </c>
       <c r="D51" t="n">
-        <v>12296.0</v>
+        <v>11716.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18.0</v>
+        <v>79.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>11368.0</v>
+        <v>10556.0</v>
       </c>
       <c r="D52" t="n">
-        <v>12644.0</v>
+        <v>11948.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>72.0</v>
+        <v>31.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>11484.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D53" t="n">
-        <v>13224.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>11600.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D54" t="n">
-        <v>13456.0</v>
+        <v>12412.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>11252.0</v>
+        <v>9860.0</v>
       </c>
       <c r="D55" t="n">
-        <v>13340.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E55" t="n">
         <v>1.0</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>11020.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D56" t="n">
         <v>13340.0</v>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>11020.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D57" t="n">
-        <v>13456.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E57" t="n">
         <v>1.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>11136.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D58" t="n">
-        <v>13572.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>24.0</v>
+        <v>115.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>11020.0</v>
+        <v>10208.0</v>
       </c>
       <c r="D59" t="n">
-        <v>13688.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>11252.0</v>
+        <v>10092.0</v>
       </c>
       <c r="D60" t="n">
-        <v>14036.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>11136.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D61" t="n">
-        <v>14152.0</v>
+        <v>15080.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.0</v>
+        <v>100.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -1103,7 +1103,7 @@
         <v>11252.0</v>
       </c>
       <c r="D62" t="n">
-        <v>14848.0</v>
+        <v>15776.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>90.0</v>
+        <v>113.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>12064.0</v>
+        <v>11832.0</v>
       </c>
       <c r="D63" t="n">
-        <v>14964.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>116.0</v>
+        <v>65.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>12180.0</v>
+        <v>11600.0</v>
       </c>
       <c r="D64" t="n">
-        <v>14848.0</v>
+        <v>19720.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>62.0</v>
+        <v>99.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>12528.0</v>
+        <v>14384.0</v>
       </c>
       <c r="D65" t="n">
-        <v>15196.0</v>
+        <v>20184.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>59.0</v>
+        <v>89.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>12992.0</v>
+        <v>13804.0</v>
       </c>
       <c r="D66" t="n">
-        <v>14964.0</v>
+        <v>18792.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>104.0</v>
+        <v>92.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>16472.0</v>
+        <v>14152.0</v>
       </c>
       <c r="D67" t="n">
-        <v>16472.0</v>
+        <v>18908.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>99.0</v>
+        <v>125.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>14384.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D68" t="n">
-        <v>20184.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>92.0</v>
+        <v>104.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>14152.0</v>
+        <v>16472.0</v>
       </c>
       <c r="D69" t="n">
-        <v>18908.0</v>
+        <v>16472.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>89.0</v>
+        <v>64.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>13804.0</v>
+        <v>11716.0</v>
       </c>
       <c r="D70" t="n">
-        <v>18792.0</v>
+        <v>16124.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>125.0</v>
+        <v>58.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>13688.0</v>
+        <v>11716.0</v>
       </c>
       <c r="D71" t="n">
-        <v>17516.0</v>
+        <v>16008.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>65.0</v>
+        <v>91.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>11600.0</v>
+        <v>12180.0</v>
       </c>
       <c r="D72" t="n">
-        <v>19720.0</v>
+        <v>15544.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>113.0</v>
+        <v>61.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>11832.0</v>
+        <v>12296.0</v>
       </c>
       <c r="D73" t="n">
-        <v>17516.0</v>
+        <v>15312.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>11716.0</v>
+        <v>12528.0</v>
       </c>
       <c r="D74" t="n">
-        <v>16124.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>11716.0</v>
+        <v>12992.0</v>
       </c>
       <c r="D75" t="n">
-        <v>16008.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>11252.0</v>
+        <v>12064.0</v>
       </c>
       <c r="D76" t="n">
-        <v>15776.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>91.0</v>
+        <v>60.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>12180.0</v>
+        <v>12412.0</v>
       </c>
       <c r="D77" t="n">
-        <v>15544.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>61.0</v>
+        <v>116.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>12296.0</v>
+        <v>12180.0</v>
       </c>
       <c r="D78" t="n">
-        <v>15312.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>60.0</v>
+        <v>3.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>12412.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D79" t="n">
-        <v>14964.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>67.0</v>
+        <v>120.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>12412.0</v>
+        <v>10440.0</v>
       </c>
       <c r="D80" t="n">
-        <v>13340.0</v>
+        <v>14732.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>73.0</v>
+        <v>7.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>12296.0</v>
+        <v>10208.0</v>
       </c>
       <c r="D81" t="n">
-        <v>12760.0</v>
+        <v>14384.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>74.0</v>
+        <v>1.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>12064.0</v>
+        <v>9860.0</v>
       </c>
       <c r="D82" t="n">
-        <v>12528.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>68.0</v>
+        <v>16.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>12876.0</v>
+        <v>9628.0</v>
       </c>
       <c r="D83" t="n">
-        <v>12180.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>76.0</v>
+        <v>2.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>11832.0</v>
+        <v>9396.0</v>
       </c>
       <c r="D84" t="n">
-        <v>11252.0</v>
+        <v>14616.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>75.0</v>
+        <v>51.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>12644.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D85" t="n">
-        <v>10556.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>69.0</v>
+        <v>37.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>13688.0</v>
+        <v>9048.0</v>
       </c>
       <c r="D86" t="n">
-        <v>10904.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>70.0</v>
+        <v>35.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>13688.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D87" t="n">
-        <v>11716.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>71.0</v>
+        <v>36.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
+        <v>8932.0</v>
+      </c>
+      <c r="D88" t="n">
         <v>13688.0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>12528.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>96.0</v>
+        <v>30.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>15660.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D89" t="n">
-        <v>10788.0</v>
+        <v>12876.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>109.0</v>
+        <v>32.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>15660.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D90" t="n">
-        <v>11368.0</v>
+        <v>10324.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>110.0</v>
+        <v>29.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>15544.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D91" t="n">
-        <v>12760.0</v>
+        <v>10672.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>16936.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D92" t="n">
-        <v>12180.0</v>
+        <v>11136.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>86.0</v>
+        <v>33.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>17052.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D93" t="n">
-        <v>12064.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>87.0</v>
+        <v>122.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>16936.0</v>
+        <v>8004.0</v>
       </c>
       <c r="D94" t="n">
-        <v>11832.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>88.0</v>
+        <v>28.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>17052.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D95" t="n">
-        <v>11600.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>119.0</v>
+        <v>26.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>16240.0</v>
+        <v>8932.0</v>
       </c>
       <c r="D96" t="n">
-        <v>8352.0</v>
+        <v>12064.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>63.0</v>
+        <v>38.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>15312.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D97" t="n">
-        <v>6612.0</v>
+        <v>12296.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>102.0</v>
+        <v>39.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>10904.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D98" t="n">
-        <v>3480.0</v>
+        <v>12644.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>101.0</v>
+        <v>34.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>9744.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D99" t="n">
-        <v>3132.0</v>
+        <v>12876.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>83.0</v>
+        <v>43.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>11020.0</v>
+        <v>8584.0</v>
       </c>
       <c r="D100" t="n">
-        <v>7424.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>82.0</v>
+        <v>40.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>11484.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D101" t="n">
-        <v>7540.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>126.0</v>
+        <v>42.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>11484.0</v>
+        <v>8004.0</v>
       </c>
       <c r="D102" t="n">
-        <v>8468.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>81.0</v>
+        <v>44.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>11484.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D103" t="n">
-        <v>9512.0</v>
+        <v>14732.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>84.0</v>
+        <v>57.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>11484.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D104" t="n">
-        <v>9744.0</v>
+        <v>15312.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>117.0</v>
+        <v>121.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>11020.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D105" t="n">
-        <v>10208.0</v>
+        <v>15544.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>78.0</v>
+        <v>5.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>11136.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D106" t="n">
-        <v>11020.0</v>
+        <v>15776.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>79.0</v>
+        <v>52.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>10556.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D107" t="n">
-        <v>11948.0</v>
+        <v>16240.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>80.0</v>
+        <v>124.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>10324.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D108" t="n">
-        <v>11716.0</v>
+        <v>16472.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>31.0</v>
+        <v>66.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>9744.0</v>
+        <v>10324.0</v>
       </c>
       <c r="D109" t="n">
-        <v>12528.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>27.0</v>
+        <v>55.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -1919,7 +1919,7 @@
         <v>9512.0</v>
       </c>
       <c r="D110" t="n">
-        <v>12412.0</v>
+        <v>17400.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>30.0</v>
+        <v>56.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -1936,7 +1936,7 @@
         <v>9164.0</v>
       </c>
       <c r="D111" t="n">
-        <v>12876.0</v>
+        <v>16008.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>12.0</v>
+        <v>54.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>9860.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D112" t="n">
-        <v>13108.0</v>
+        <v>15428.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>9512.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D113" t="n">
-        <v>13340.0</v>
+        <v>17052.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>9164.0</v>
+        <v>7888.0</v>
       </c>
       <c r="D114" t="n">
-        <v>13340.0</v>
+        <v>16936.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>36.0</v>
+        <v>49.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>8932.0</v>
+        <v>7888.0</v>
       </c>
       <c r="D115" t="n">
-        <v>13688.0</v>
+        <v>17168.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>37.0</v>
+        <v>118.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>9048.0</v>
+        <v>7656.0</v>
       </c>
       <c r="D116" t="n">
-        <v>13804.0</v>
+        <v>17052.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>35.0</v>
+        <v>48.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>8700.0</v>
+        <v>7540.0</v>
       </c>
       <c r="D117" t="n">
-        <v>14036.0</v>
+        <v>16820.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>8236.0</v>
+        <v>7424.0</v>
       </c>
       <c r="D118" t="n">
-        <v>13572.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43.0</v>
+        <v>94.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>8584.0</v>
+        <v>6496.0</v>
       </c>
       <c r="D119" t="n">
-        <v>13108.0</v>
+        <v>17168.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>34.0</v>
+        <v>45.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>8468.0</v>
+        <v>7540.0</v>
       </c>
       <c r="D120" t="n">
-        <v>12876.0</v>
+        <v>15080.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>39.0</v>
+        <v>103.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>8352.0</v>
+        <v>7308.0</v>
       </c>
       <c r="D121" t="n">
-        <v>12644.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>42.0</v>
+        <v>95.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>8004.0</v>
+        <v>5684.0</v>
       </c>
       <c r="D122" t="n">
-        <v>12760.0</v>
+        <v>13224.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>38.0</v>
+        <v>93.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>8468.0</v>
+        <v>5104.0</v>
       </c>
       <c r="D123" t="n">
-        <v>12296.0</v>
+        <v>14616.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>26.0</v>
+        <v>112.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>8932.0</v>
+        <v>6264.0</v>
       </c>
       <c r="D124" t="n">
-        <v>12064.0</v>
+        <v>19140.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>25.0</v>
+        <v>111.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>8468.0</v>
+        <v>5336.0</v>
       </c>
       <c r="D125" t="n">
-        <v>11136.0</v>
+        <v>18908.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>33.0</v>
+        <v>107.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>8236.0</v>
+        <v>1160.0</v>
       </c>
       <c r="D126" t="n">
-        <v>11020.0</v>
+        <v>18560.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>8004.0</v>
+        <v>3248.0</v>
       </c>
       <c r="D127" t="n">
-        <v>11020.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>28.0</v>
+        <v>123.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>7772.0</v>
+        <v>5684.0</v>
       </c>
       <c r="D128" t="n">
-        <v>11020.0</v>
+        <v>11948.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>29.0</v>
+        <v>97.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>8352.0</v>
+        <v>5336.0</v>
       </c>
       <c r="D129" t="n">
-        <v>10672.0</v>
+        <v>10324.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>32.0</v>
+        <v>98.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>8352.0</v>
+        <v>812.0</v>
       </c>
       <c r="D130" t="n">
-        <v>10324.0</v>
+        <v>6264.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>

--- a/Zeus/data/TSP/Results/bier127.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/bier127.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>145186.859375</v>
+        <v>126072.7890625</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>145186.859375</v>
+        <v>126072.7890625</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,16 +108,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101.0</v>
+        <v>98.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>9744.0</v>
+        <v>812.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3132.0</v>
+        <v>6264.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -125,16 +125,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>10904.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3480.0</v>
+        <v>3132.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63.0</v>
+        <v>102.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>15312.0</v>
+        <v>10904.0</v>
       </c>
       <c r="D6" t="n">
-        <v>6612.0</v>
+        <v>3480.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,16 +159,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>119.0</v>
+        <v>83.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>16240.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D7" t="n">
-        <v>8352.0</v>
+        <v>7424.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -176,16 +176,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96.0</v>
+        <v>82.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>15660.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D8" t="n">
-        <v>10788.0</v>
+        <v>7540.0</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -193,16 +193,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109.0</v>
+        <v>126.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>15660.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D9" t="n">
-        <v>11368.0</v>
+        <v>8468.0</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -210,16 +210,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88.0</v>
+        <v>81.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>17052.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D10" t="n">
-        <v>11600.0</v>
+        <v>9512.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87.0</v>
+        <v>84.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>16936.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D11" t="n">
-        <v>11832.0</v>
+        <v>9744.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>86.0</v>
+        <v>117.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>17052.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12064.0</v>
+        <v>10208.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>85.0</v>
+        <v>78.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>16936.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D13" t="n">
-        <v>12180.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110.0</v>
+        <v>76.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>15544.0</v>
+        <v>11832.0</v>
       </c>
       <c r="D14" t="n">
-        <v>12760.0</v>
+        <v>11252.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>11484.0</v>
+        <v>12644.0</v>
       </c>
       <c r="D15" t="n">
-        <v>7540.0</v>
+        <v>10556.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,16 +312,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83.0</v>
+        <v>69.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>11020.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D16" t="n">
-        <v>7424.0</v>
+        <v>10904.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>126.0</v>
+        <v>68.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>11484.0</v>
+        <v>12876.0</v>
       </c>
       <c r="D17" t="n">
-        <v>8468.0</v>
+        <v>12180.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>81.0</v>
+        <v>71.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>11484.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D18" t="n">
-        <v>9512.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>84.0</v>
+        <v>70.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>11484.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D19" t="n">
-        <v>9744.0</v>
+        <v>11716.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -380,16 +380,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>117.0</v>
+        <v>63.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>11020.0</v>
+        <v>15312.0</v>
       </c>
       <c r="D20" t="n">
-        <v>10208.0</v>
+        <v>6612.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -397,16 +397,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>75.0</v>
+        <v>119.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>12644.0</v>
+        <v>16240.0</v>
       </c>
       <c r="D21" t="n">
-        <v>10556.0</v>
+        <v>8352.0</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -414,16 +414,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>69.0</v>
+        <v>96.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>13688.0</v>
+        <v>15660.0</v>
       </c>
       <c r="D22" t="n">
-        <v>10904.0</v>
+        <v>10788.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>70.0</v>
+        <v>109.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>13688.0</v>
+        <v>15660.0</v>
       </c>
       <c r="D23" t="n">
-        <v>11716.0</v>
+        <v>11368.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>71.0</v>
+        <v>88.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>13688.0</v>
+        <v>17052.0</v>
       </c>
       <c r="D24" t="n">
-        <v>12528.0</v>
+        <v>11600.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -465,16 +465,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>68.0</v>
+        <v>87.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>12876.0</v>
+        <v>16936.0</v>
       </c>
       <c r="D25" t="n">
-        <v>12180.0</v>
+        <v>11832.0</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>76.0</v>
+        <v>86.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>11832.0</v>
+        <v>17052.0</v>
       </c>
       <c r="D26" t="n">
-        <v>11252.0</v>
+        <v>12064.0</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>78.0</v>
+        <v>85.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>11136.0</v>
+        <v>16936.0</v>
       </c>
       <c r="D27" t="n">
-        <v>11020.0</v>
+        <v>12180.0</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>77.0</v>
+        <v>110.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>11368.0</v>
+        <v>15544.0</v>
       </c>
       <c r="D28" t="n">
-        <v>12296.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>74.0</v>
+        <v>104.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>12064.0</v>
+        <v>16472.0</v>
       </c>
       <c r="D29" t="n">
-        <v>12528.0</v>
+        <v>16472.0</v>
       </c>
       <c r="E29" t="n">
         <v>1.0</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>73.0</v>
+        <v>125.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>12296.0</v>
+        <v>13688.0</v>
       </c>
       <c r="D30" t="n">
-        <v>12760.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E30" t="n">
         <v>1.0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67.0</v>
+        <v>89.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>12412.0</v>
+        <v>13804.0</v>
       </c>
       <c r="D31" t="n">
-        <v>13340.0</v>
+        <v>18792.0</v>
       </c>
       <c r="E31" t="n">
         <v>1.0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18.0</v>
+        <v>92.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>11368.0</v>
+        <v>14152.0</v>
       </c>
       <c r="D32" t="n">
-        <v>12644.0</v>
+        <v>18908.0</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>72.0</v>
+        <v>99.0</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>11484.0</v>
+        <v>14384.0</v>
       </c>
       <c r="D33" t="n">
-        <v>13224.0</v>
+        <v>20184.0</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.0</v>
+        <v>65.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -627,7 +627,7 @@
         <v>11600.0</v>
       </c>
       <c r="D34" t="n">
-        <v>13456.0</v>
+        <v>19720.0</v>
       </c>
       <c r="E34" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21.0</v>
+        <v>113.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>11020.0</v>
+        <v>11832.0</v>
       </c>
       <c r="D35" t="n">
-        <v>13108.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17.0</v>
+        <v>59.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>10904.0</v>
+        <v>12992.0</v>
       </c>
       <c r="D36" t="n">
-        <v>13108.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>22.0</v>
+        <v>60.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>11020.0</v>
+        <v>12412.0</v>
       </c>
       <c r="D37" t="n">
-        <v>13340.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19.0</v>
+        <v>62.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>11252.0</v>
+        <v>12528.0</v>
       </c>
       <c r="D38" t="n">
-        <v>13340.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>23.0</v>
+        <v>61.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>11136.0</v>
+        <v>12296.0</v>
       </c>
       <c r="D39" t="n">
-        <v>13572.0</v>
+        <v>15312.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.0</v>
+        <v>91.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>11252.0</v>
+        <v>12180.0</v>
       </c>
       <c r="D40" t="n">
-        <v>14036.0</v>
+        <v>15544.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11.0</v>
+        <v>58.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>11136.0</v>
+        <v>11716.0</v>
       </c>
       <c r="D41" t="n">
-        <v>14152.0</v>
+        <v>16008.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>24.0</v>
+        <v>64.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>11020.0</v>
+        <v>11716.0</v>
       </c>
       <c r="D42" t="n">
-        <v>13688.0</v>
+        <v>16124.0</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.0</v>
+        <v>100.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>11020.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D43" t="n">
-        <v>13456.0</v>
+        <v>15776.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>10672.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D44" t="n">
-        <v>13340.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>108.0</v>
+        <v>90.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>10788.0</v>
+        <v>12064.0</v>
       </c>
       <c r="D45" t="n">
-        <v>13572.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.0</v>
+        <v>116.0</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>10788.0</v>
+        <v>12180.0</v>
       </c>
       <c r="D46" t="n">
-        <v>13804.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E46" t="n">
         <v>1.0</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>106.0</v>
+        <v>8.0</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>10672.0</v>
+        <v>11600.0</v>
       </c>
       <c r="D47" t="n">
-        <v>13804.0</v>
+        <v>13456.0</v>
       </c>
       <c r="E47" t="n">
         <v>1.0</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>114.0</v>
+        <v>67.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>10672.0</v>
+        <v>12412.0</v>
       </c>
       <c r="D48" t="n">
-        <v>14152.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>105.0</v>
+        <v>73.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>10440.0</v>
+        <v>12296.0</v>
       </c>
       <c r="D49" t="n">
-        <v>14036.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15.0</v>
+        <v>74.0</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>10556.0</v>
+        <v>12064.0</v>
       </c>
       <c r="D50" t="n">
-        <v>13688.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E50" t="n">
         <v>1.0</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>80.0</v>
+        <v>77.0</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>10324.0</v>
+        <v>11368.0</v>
       </c>
       <c r="D51" t="n">
-        <v>11716.0</v>
+        <v>12296.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>79.0</v>
+        <v>18.0</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>10556.0</v>
+        <v>11368.0</v>
       </c>
       <c r="D52" t="n">
-        <v>11948.0</v>
+        <v>12644.0</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>31.0</v>
+        <v>72.0</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>9744.0</v>
+        <v>11484.0</v>
       </c>
       <c r="D53" t="n">
-        <v>12528.0</v>
+        <v>13224.0</v>
       </c>
       <c r="E53" t="n">
         <v>1.0</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>9512.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D54" t="n">
-        <v>12412.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E54" t="n">
         <v>1.0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>9860.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D55" t="n">
         <v>13108.0</v>
@@ -992,16 +992,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>9512.0</v>
+        <v>10904.0</v>
       </c>
       <c r="D56" t="n">
-        <v>13340.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E56" t="n">
         <v>1.0</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>41.0</v>
+        <v>22.0</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>9164.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D57" t="n">
         <v>13340.0</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>50.0</v>
+        <v>4.0</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>9744.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D58" t="n">
-        <v>15196.0</v>
+        <v>13456.0</v>
       </c>
       <c r="E58" t="n">
         <v>1.0</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>115.0</v>
+        <v>20.0</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>10208.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D59" t="n">
-        <v>15196.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -1060,16 +1060,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13.0</v>
+        <v>108.0</v>
       </c>
       <c r="B60" t="n">
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>10092.0</v>
+        <v>10788.0</v>
       </c>
       <c r="D60" t="n">
-        <v>14964.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>10672.0</v>
+        <v>11020.0</v>
       </c>
       <c r="D61" t="n">
-        <v>15080.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E61" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>100.0</v>
+        <v>23.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>11252.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D62" t="n">
-        <v>15776.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>113.0</v>
+        <v>9.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>11832.0</v>
+        <v>11252.0</v>
       </c>
       <c r="D63" t="n">
-        <v>17516.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65.0</v>
+        <v>11.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>11600.0</v>
+        <v>11136.0</v>
       </c>
       <c r="D64" t="n">
-        <v>19720.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>99.0</v>
+        <v>114.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>14384.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D65" t="n">
-        <v>20184.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>89.0</v>
+        <v>6.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
+        <v>10788.0</v>
+      </c>
+      <c r="D66" t="n">
         <v>13804.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>18792.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>92.0</v>
+        <v>106.0</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>14152.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D67" t="n">
-        <v>18908.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E67" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>125.0</v>
+        <v>15.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
+        <v>10556.0</v>
+      </c>
+      <c r="D68" t="n">
         <v>13688.0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>17516.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>16472.0</v>
+        <v>10440.0</v>
       </c>
       <c r="D69" t="n">
-        <v>16472.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>64.0</v>
+        <v>10.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>11716.0</v>
+        <v>10672.0</v>
       </c>
       <c r="D70" t="n">
-        <v>16124.0</v>
+        <v>15080.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58.0</v>
+        <v>120.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>11716.0</v>
+        <v>10440.0</v>
       </c>
       <c r="D71" t="n">
-        <v>16008.0</v>
+        <v>14732.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>91.0</v>
+        <v>7.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>12180.0</v>
+        <v>10208.0</v>
       </c>
       <c r="D72" t="n">
-        <v>15544.0</v>
+        <v>14384.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>61.0</v>
+        <v>1.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>12296.0</v>
+        <v>9860.0</v>
       </c>
       <c r="D73" t="n">
-        <v>15312.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>62.0</v>
+        <v>16.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>12528.0</v>
+        <v>9628.0</v>
       </c>
       <c r="D74" t="n">
-        <v>15196.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>59.0</v>
+        <v>12.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>12992.0</v>
+        <v>9860.0</v>
       </c>
       <c r="D75" t="n">
-        <v>14964.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1332,16 +1332,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>90.0</v>
+        <v>14.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>12064.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D76" t="n">
-        <v>14964.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E76" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>60.0</v>
+        <v>41.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>12412.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D77" t="n">
-        <v>14964.0</v>
+        <v>13340.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>116.0</v>
+        <v>43.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>12180.0</v>
+        <v>8584.0</v>
       </c>
       <c r="D78" t="n">
-        <v>14848.0</v>
+        <v>13108.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.0</v>
+        <v>34.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>11252.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D79" t="n">
-        <v>14848.0</v>
+        <v>12876.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>120.0</v>
+        <v>39.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>10440.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D80" t="n">
-        <v>14732.0</v>
+        <v>12644.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.0</v>
+        <v>42.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>10208.0</v>
+        <v>8004.0</v>
       </c>
       <c r="D81" t="n">
-        <v>14384.0</v>
+        <v>12760.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.0</v>
+        <v>38.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>9860.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D82" t="n">
-        <v>14152.0</v>
+        <v>12296.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>9628.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D83" t="n">
-        <v>14036.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.0</v>
+        <v>122.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
       </c>
       <c r="C84" t="n">
-        <v>9396.0</v>
+        <v>8004.0</v>
       </c>
       <c r="D84" t="n">
-        <v>14616.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E84" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>51.0</v>
+        <v>32.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>9164.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D85" t="n">
-        <v>14964.0</v>
+        <v>10324.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>9048.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D86" t="n">
-        <v>13804.0</v>
+        <v>10672.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>8700.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D87" t="n">
-        <v>14036.0</v>
+        <v>11020.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>8932.0</v>
+        <v>8468.0</v>
       </c>
       <c r="D88" t="n">
-        <v>13688.0</v>
+        <v>11136.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>9164.0</v>
+        <v>8932.0</v>
       </c>
       <c r="D89" t="n">
-        <v>12876.0</v>
+        <v>12064.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>8352.0</v>
+        <v>10324.0</v>
       </c>
       <c r="D90" t="n">
-        <v>10324.0</v>
+        <v>11716.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29.0</v>
+        <v>79.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>8352.0</v>
+        <v>10556.0</v>
       </c>
       <c r="D91" t="n">
-        <v>10672.0</v>
+        <v>11948.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>8468.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D92" t="n">
-        <v>11136.0</v>
+        <v>12528.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>8236.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D93" t="n">
-        <v>11020.0</v>
+        <v>12412.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>122.0</v>
+        <v>30.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>8004.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D94" t="n">
-        <v>11020.0</v>
+        <v>12876.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>7772.0</v>
+        <v>8932.0</v>
       </c>
       <c r="D95" t="n">
-        <v>11020.0</v>
+        <v>13688.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>8932.0</v>
+        <v>9048.0</v>
       </c>
       <c r="D96" t="n">
-        <v>12064.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>8468.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D97" t="n">
-        <v>12296.0</v>
+        <v>14036.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>8352.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D98" t="n">
-        <v>12644.0</v>
+        <v>13572.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>8468.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D99" t="n">
-        <v>12876.0</v>
+        <v>14732.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43.0</v>
+        <v>103.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>8584.0</v>
+        <v>7308.0</v>
       </c>
       <c r="D100" t="n">
-        <v>13108.0</v>
+        <v>14848.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>8236.0</v>
+        <v>7540.0</v>
       </c>
       <c r="D101" t="n">
-        <v>13572.0</v>
+        <v>15080.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>42.0</v>
+        <v>54.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>8004.0</v>
+        <v>8236.0</v>
       </c>
       <c r="D102" t="n">
-        <v>12760.0</v>
+        <v>15428.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>44.0</v>
+        <v>57.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>7772.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D103" t="n">
-        <v>14732.0</v>
+        <v>15312.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>57.0</v>
+        <v>51.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>8700.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D104" t="n">
-        <v>15312.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>121.0</v>
+        <v>2.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>9164.0</v>
+        <v>9396.0</v>
       </c>
       <c r="D105" t="n">
-        <v>15544.0</v>
+        <v>14616.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>9512.0</v>
+        <v>10092.0</v>
       </c>
       <c r="D106" t="n">
-        <v>15776.0</v>
+        <v>14964.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>52.0</v>
+        <v>115.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>9744.0</v>
+        <v>10208.0</v>
       </c>
       <c r="D107" t="n">
-        <v>16240.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>124.0</v>
+        <v>50.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>9512.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D108" t="n">
-        <v>16472.0</v>
+        <v>15196.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>66.0</v>
+        <v>5.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>10324.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D109" t="n">
-        <v>17516.0</v>
+        <v>15776.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>55.0</v>
+        <v>121.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>9512.0</v>
+        <v>9164.0</v>
       </c>
       <c r="D110" t="n">
-        <v>17400.0</v>
+        <v>15544.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>8236.0</v>
+        <v>9744.0</v>
       </c>
       <c r="D112" t="n">
-        <v>15428.0</v>
+        <v>16240.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>47.0</v>
+        <v>124.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>8352.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D113" t="n">
-        <v>17052.0</v>
+        <v>16472.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>53.0</v>
+        <v>66.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>7888.0</v>
+        <v>10324.0</v>
       </c>
       <c r="D114" t="n">
-        <v>16936.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>49.0</v>
+        <v>55.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>7888.0</v>
+        <v>9512.0</v>
       </c>
       <c r="D115" t="n">
-        <v>17168.0</v>
+        <v>17400.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>118.0</v>
+        <v>47.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>7656.0</v>
+        <v>8352.0</v>
       </c>
       <c r="D116" t="n">
         <v>17052.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>7540.0</v>
+        <v>7888.0</v>
       </c>
       <c r="D117" t="n">
-        <v>16820.0</v>
+        <v>17168.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>46.0</v>
+        <v>53.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>7424.0</v>
+        <v>7888.0</v>
       </c>
       <c r="D118" t="n">
-        <v>17516.0</v>
+        <v>16936.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>94.0</v>
+        <v>48.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>6496.0</v>
+        <v>7540.0</v>
       </c>
       <c r="D119" t="n">
-        <v>17168.0</v>
+        <v>16820.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>45.0</v>
+        <v>118.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>7540.0</v>
+        <v>7656.0</v>
       </c>
       <c r="D120" t="n">
-        <v>15080.0</v>
+        <v>17052.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>103.0</v>
+        <v>46.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>7308.0</v>
+        <v>7424.0</v>
       </c>
       <c r="D121" t="n">
-        <v>14848.0</v>
+        <v>17516.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>95.0</v>
+        <v>94.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>5684.0</v>
+        <v>6496.0</v>
       </c>
       <c r="D122" t="n">
-        <v>13224.0</v>
+        <v>17168.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>93.0</v>
+        <v>112.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>5104.0</v>
+        <v>6264.0</v>
       </c>
       <c r="D123" t="n">
-        <v>14616.0</v>
+        <v>19140.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>6264.0</v>
+        <v>5336.0</v>
       </c>
       <c r="D124" t="n">
-        <v>19140.0</v>
+        <v>18908.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111.0</v>
+        <v>107.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>5336.0</v>
+        <v>1160.0</v>
       </c>
       <c r="D125" t="n">
-        <v>18908.0</v>
+        <v>18560.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>107.0</v>
+        <v>127.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>1160.0</v>
+        <v>3248.0</v>
       </c>
       <c r="D126" t="n">
-        <v>18560.0</v>
+        <v>14152.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>127.0</v>
+        <v>93.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>3248.0</v>
+        <v>5104.0</v>
       </c>
       <c r="D127" t="n">
-        <v>14152.0</v>
+        <v>14616.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>123.0</v>
+        <v>95.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -2225,7 +2225,7 @@
         <v>5684.0</v>
       </c>
       <c r="D128" t="n">
-        <v>11948.0</v>
+        <v>13224.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>97.0</v>
+        <v>123.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>5336.0</v>
+        <v>5684.0</v>
       </c>
       <c r="D129" t="n">
-        <v>10324.0</v>
+        <v>11948.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>812.0</v>
+        <v>5336.0</v>
       </c>
       <c r="D130" t="n">
-        <v>6264.0</v>
+        <v>10324.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
